--- a/biology/Botanique/Lepidoziaceae/Lepidoziaceae.xlsx
+++ b/biology/Botanique/Lepidoziaceae/Lepidoziaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Lepidoziaceae est constituée d'hépatiques de la classe des Jungermanniopsida (hépatiques à lobes) et de l'ordre des Jungermanniales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (25 mai 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 mai 2013) :
 genre Acromastigum
 genre Amazoopsis
 genre Bazzania
@@ -541,7 +555,7 @@
 genre Telaranea
 genre Zoopsidella
 genre Zoopsis
-Selon ITIS      (25 mai 2013)[2] :
+Selon ITIS      (25 mai 2013) :
 genre Acromastigum A. Evans
 genre Amazoopsis J.J. Engel &amp; G.L. Merr.
 genre Arachniopsis Spruce
@@ -571,7 +585,7 @@
 genre Telaranea Spruce ex Schiffn.
 genre Zoopsidella R.M. Schust.
 genre Zoopsis Hook.f. ex Gottsche, Lindenb. &amp; Nees
-Selon NCBI  (25 mai 2013)[3] :
+Selon NCBI  (25 mai 2013) :
 genre Acromastigum
 genre Amazoopsis
 genre Arachniopsis
@@ -594,7 +608,7 @@
 genre Telaranea
 genre Zoopsidella
 genre Zoopsis
-Selon Tropicos                                           (25 mai 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 genre Acrolepidozia R.M. Schust.
 genre Acromastigum A. Evans
 genre Amazoopsis J.J. Engel &amp; G.L. Merr.
